--- a/Stage 3/Documents/Meeting-Tracking-Template.xlsx
+++ b/Stage 3/Documents/Meeting-Tracking-Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rahulsmbp/Downloads/27a-master-Documents-WordDocs/Stage3/WordDocs/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samli\Documents\Yuconz\27a\Stage 3\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A60E837-75FE-6741-849A-499DBD36DAC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFEBAF79-88CE-48BE-AF28-64CE3DC3E8CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28160" windowHeight="18260" xr2:uid="{E293897E-8EBF-4E9F-923A-8549BB33F108}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{E293897E-8EBF-4E9F-923A-8549BB33F108}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -94,7 +94,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -523,7 +523,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -937,7 +937,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -2059,15 +2059,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>14288</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>461963</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2095,15 +2095,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>4762</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>4761</xdr:rowOff>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>561976</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2430,17 +2430,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C44F4C73-AD10-409F-A536-9F4A3BF21FD4}">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="45.5" customWidth="1"/>
-    <col min="2" max="2" width="42.5" customWidth="1"/>
+    <col min="1" max="1" width="34.06640625" customWidth="1"/>
+    <col min="2" max="2" width="37.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2448,7 +2448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>2</v>
       </c>
@@ -2456,7 +2456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2464,7 +2464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2472,7 +2472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>2</v>
       </c>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>2</v>
       </c>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>2</v>
       </c>
@@ -2504,7 +2504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>2</v>
       </c>
@@ -2512,7 +2512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -2520,7 +2520,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>3</v>
       </c>
@@ -2528,7 +2528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>3</v>
       </c>
@@ -2536,7 +2536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>3</v>
       </c>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>3</v>
       </c>
@@ -2552,7 +2552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>3</v>
       </c>
@@ -2560,7 +2560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>3</v>
       </c>
@@ -2568,7 +2568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>3</v>
       </c>
@@ -2576,7 +2576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>3</v>
       </c>
@@ -2586,6 +2586,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>